--- a/biology/Zoologie/Ensis_(mollusque)/Ensis_(mollusque).xlsx
+++ b/biology/Zoologie/Ensis_(mollusque)/Ensis_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ensis est un genre de mollusques bivalves marins de taille moyenne et comestibles se rencontrant sur les littoraux et faisant partie de la famille des Pharidae. Ils sont communément appelés couteaux de par leur forme fuselée.
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
 Ensis americanus (Gould, 1870)
 Ensis arcuatus (Jeffreys, 1865) - couteau arqué
 Ensis californicus Dall, 1899
@@ -525,7 +539,7 @@
 Ensis minor Dall, 1900
 Ensis myrae S. S. Berry, 1953
 Ensis siliqua (Linnaeus, 1758) - couteau commun
-Selon WRMS[3] :
+Selon WRMS :
 Ensis californicus Dall, 1899
 Ensis directus (Conrad, 1843) - couteau américain
 Ensis ensis (Linnaeus, 1758) - couteau-sabre
